--- a/data/trans_camb/POLIPATOLOGIA_2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_2-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>4.283733686659518</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17.70393439154996</v>
+        <v>17.70393439154995</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>13.64041956171503</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.595831862525226</v>
+        <v>2.58309906750852</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.2119370416415551</v>
+        <v>-0.1748443379236282</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12.44026013751637</v>
+        <v>12.81476736705016</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.653504432408393</v>
+        <v>8.31578895125784</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.030670208305119</v>
+        <v>2.879570371614581</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>13.1150570841047</v>
+        <v>12.73933879979967</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>6.65188915673635</v>
+        <v>7.05100547508329</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.80741988981414</v>
+        <v>2.847766510643249</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>14.65405819564747</v>
+        <v>15.00429224054072</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.59393509463623</v>
+        <v>11.56041471040446</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.559975761589529</v>
+        <v>8.600214071227342</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22.30333541063815</v>
+        <v>22.10062313166166</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.36676254434911</v>
+        <v>18.73609717373813</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>13.15483497524592</v>
+        <v>13.29405501390962</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>22.17533876384401</v>
+        <v>21.96345916297841</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>13.57766774238257</v>
+        <v>13.87143781860476</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.785551935278956</v>
+        <v>9.548421851818961</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>21.23507984222508</v>
+        <v>21.51740318540635</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.2272475935867073</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.9391752106405969</v>
+        <v>0.9391752106405966</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.4552845111103889</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1212502905749008</v>
+        <v>0.1199403645271484</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.0170982347425095</v>
+        <v>-0.01300968851670814</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.5782559064026801</v>
+        <v>0.5785271329581986</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2384213739874077</v>
+        <v>0.2490934870179613</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0938821503529368</v>
+        <v>0.08369031218978694</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3969025736389643</v>
+        <v>0.3875854105074883</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2622253375352022</v>
+        <v>0.2697094737821476</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1150565658983864</v>
+        <v>0.1119096351058393</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.566001203426397</v>
+        <v>0.5713102964790635</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7031254261982571</v>
+        <v>0.6809447921583948</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5080234597164521</v>
+        <v>0.5125327748172066</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.327752662253231</v>
+        <v>1.310741286070222</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6738941450315244</v>
+        <v>0.6844326000582432</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4807508189918621</v>
+        <v>0.4859038068410942</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8213247724838997</v>
+        <v>0.8173935661265503</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5944819499003057</v>
+        <v>0.5964397819429469</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4347833338202415</v>
+        <v>0.4191109451230857</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.9424763682143147</v>
+        <v>0.939715462380496</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>3.402496534982263</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>10.9914306004377</v>
+        <v>10.99143060043771</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>4.05627790150046</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.1086331844953525</v>
+        <v>0.1675532115114834</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.4707204964354263</v>
+        <v>-0.5745949402334338</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.526607751117306</v>
+        <v>4.68740089540605</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.3448438632047878</v>
+        <v>-0.2496471124855735</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.9656224684658997</v>
+        <v>-1.052189751715952</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.732806337941055</v>
+        <v>6.967387548547839</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9841851607001866</v>
+        <v>1.293543221013546</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3506966256325511</v>
+        <v>0.3203052563934021</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.749965771020593</v>
+        <v>6.751062394106436</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.007366902363248</v>
+        <v>8.032426765230092</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.362591836184984</v>
+        <v>6.886118525125637</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.32105074170256</v>
+        <v>12.15131536299318</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.55633711433982</v>
+        <v>8.464581712644337</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.93655676975908</v>
+        <v>7.415141251988895</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>14.70321207312847</v>
+        <v>15.23373409986222</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.873523771104371</v>
+        <v>7.036649235225492</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>6.272339335747652</v>
+        <v>6.310682626331313</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>12.53854110553855</v>
+        <v>12.48208492570713</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.1001867823127875</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3236435521830455</v>
+        <v>0.3236435521830457</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1502919094873273</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.006358301112368093</v>
+        <v>0.0116529665858819</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.02509545342669687</v>
+        <v>-0.02586391586025455</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2119131317586987</v>
+        <v>0.2015102849497462</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.009676570187557286</v>
+        <v>-0.005948472750577008</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02798453138490684</v>
+        <v>-0.02879615445244542</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.181534741821289</v>
+        <v>0.1920144730674216</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03464010044559633</v>
+        <v>0.04604845232244681</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.01138548769481402</v>
+        <v>0.01014043348084527</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2347677781704647</v>
+        <v>0.2390892431795164</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4445304514037497</v>
+        <v>0.4495453571556595</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4208686697337402</v>
+        <v>0.3799020895770633</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6970221836741478</v>
+        <v>0.6732636181904935</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2737231010586715</v>
+        <v>0.2751333077080881</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2496831564537547</v>
+        <v>0.2338192046083208</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.464949292889718</v>
+        <v>0.4923704160771045</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2663724856729893</v>
+        <v>0.2822979297788449</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2461471638705507</v>
+        <v>0.2505628568945011</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4983522107878749</v>
+        <v>0.484044494666537</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-5.961773116655833</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>8.705960719486116</v>
+        <v>8.705960719486111</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.4689664328651366</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.756269635850423</v>
+        <v>-2.855987215898065</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.313678787455185</v>
+        <v>-2.422745130493309</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.574517969727171</v>
+        <v>7.791467803676507</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.681238370134587</v>
+        <v>-7.510934894374159</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-11.06147113097284</v>
+        <v>-10.96425727524404</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.42047881702202</v>
+        <v>3.277585427790651</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-4.068562552520717</v>
+        <v>-3.72581118641225</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-5.235136069008128</v>
+        <v>-5.099990017873147</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>7.12829614743247</v>
+        <v>7.055667233603052</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.460896263944675</v>
+        <v>6.141967104103326</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.368312116069691</v>
+        <v>6.009816904273094</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.36702449885444</v>
+        <v>17.31916243208162</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.281364570005206</v>
+        <v>2.608776387416009</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.9583007629494963</v>
+        <v>-0.9721014148135075</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>13.58353463275397</v>
+        <v>13.26456123057772</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.936481650882204</v>
+        <v>3.073169808165299</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.237280546975782</v>
+        <v>1.534695672890684</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>14.12021394668455</v>
+        <v>14.04484464098174</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.160661338682986</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2346133065356766</v>
+        <v>0.2346133065356765</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.01642836649197422</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.122879829124561</v>
+        <v>-0.1235093860586231</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1038160615441465</v>
+        <v>-0.1071225265583352</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3387269207074231</v>
+        <v>0.3523123722223186</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1968094577086821</v>
+        <v>-0.1912033003468838</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2755642599366835</v>
+        <v>-0.2813901366069246</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08452662008230563</v>
+        <v>0.08025054634376622</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1330511311171252</v>
+        <v>-0.1197972689164787</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1709342712306178</v>
+        <v>-0.1698584903867256</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2303856689330586</v>
+        <v>0.2299142752844495</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3677312654304667</v>
+        <v>0.3397816503654303</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.370510529853012</v>
+        <v>0.3629846918007189</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.9968783233133375</v>
+        <v>0.973635015275458</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.06583379925655905</v>
+        <v>0.07282702394233484</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.02471615926490708</v>
+        <v>-0.03266691786494037</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3943481637905946</v>
+        <v>0.3853311901847679</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1096293775768705</v>
+        <v>0.1175941378521764</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.04735836149455931</v>
+        <v>0.05656024385077691</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5198892567277856</v>
+        <v>0.524934392977674</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.835727232435997</v>
+        <v>1.95424652738241</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.530181508046174</v>
+        <v>2.50249171389818</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8.968886188253363</v>
+        <v>9.411773768465435</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.963017572939154</v>
+        <v>1.925912094037556</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.003009048168951173</v>
+        <v>0.03409268190933461</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>9.643247727780265</v>
+        <v>9.87219029647788</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.996027177771273</v>
+        <v>3.21217716014495</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.305513321904262</v>
+        <v>2.479782812460813</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>10.50045714730314</v>
+        <v>10.40020735417731</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.746925259215889</v>
+        <v>9.417224176159635</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.23061241169746</v>
+        <v>10.48225848588708</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>17.25755035754149</v>
+        <v>17.00003842618491</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.63903743510629</v>
+        <v>10.23995418428272</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.331175493782785</v>
+        <v>8.236200459223337</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>17.76894837156915</v>
+        <v>17.30714034329769</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.655700132619817</v>
+        <v>9.087038876182712</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.095112733075331</v>
+        <v>8.317159539415343</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>16.05655180484399</v>
+        <v>15.94229295709252</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.3166291168878346</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.6553433295161392</v>
+        <v>0.6553433295161395</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1855305763674621</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.08852068815576063</v>
+        <v>0.08936653728492944</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1206283833463618</v>
+        <v>0.1107395420956911</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4178341158078476</v>
+        <v>0.4216194305892013</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.05612841749529111</v>
+        <v>0.05625857479233577</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.0009903573923921709</v>
+        <v>0.0004695827776253248</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2711865530102611</v>
+        <v>0.2802384316089565</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1067110610024575</v>
+        <v>0.1117706007769547</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.081099726509214</v>
+        <v>0.08912860565542802</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3651357185088224</v>
+        <v>0.3637869097272474</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5358561421155381</v>
+        <v>0.5170224149420096</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5496180328213193</v>
+        <v>0.5686199449167937</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9268111108028397</v>
+        <v>0.9203654696949467</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3365170092484369</v>
+        <v>0.3345730433273227</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2696245791748796</v>
+        <v>0.2660210563576817</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.586188155234697</v>
+        <v>0.5675344708612422</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3422959339808526</v>
+        <v>0.3553095919666779</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3154571064082822</v>
+        <v>0.3197024325410288</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6351441267333279</v>
+        <v>0.6307429974166536</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.538143455205788</v>
+        <v>2.466680077505687</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.132923669624459</v>
+        <v>1.917317879910314</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10.29658863359305</v>
+        <v>10.3912292302399</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.85583014441494</v>
+        <v>2.753135772909265</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2229182655611469</v>
+        <v>0.5085712778463253</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>10.54325423904723</v>
+        <v>10.37881724786164</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>3.308957919499468</v>
+        <v>3.368000704398285</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.577715959717741</v>
+        <v>1.778391531164891</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>11.00798545112286</v>
+        <v>11.04986232517131</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.546152690139205</v>
+        <v>6.640526496895998</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.044825144563394</v>
+        <v>5.985836724571659</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14.52338713094144</v>
+        <v>14.70630910703348</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.584785379292586</v>
+        <v>7.431919372617936</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.859399779585329</v>
+        <v>5.1361925052186</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>14.7965263785499</v>
+        <v>14.83009951906795</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>6.427614373315962</v>
+        <v>6.555343924487632</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.89457759220364</v>
+        <v>4.970366236587018</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>14.09070815635819</v>
+        <v>14.12356340842136</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.07746783008724742</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3768416022289268</v>
+        <v>0.3768416022289267</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1824995874025954</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1203917674225191</v>
+        <v>0.1162254681675586</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1010518028162075</v>
+        <v>0.09322545923812156</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.4941089373104396</v>
+        <v>0.4966844501181629</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.08264721948084124</v>
+        <v>0.07906748363655282</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.008143530398260962</v>
+        <v>0.01447649722833916</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3051334482757365</v>
+        <v>0.2955902176934184</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1201983915327851</v>
+        <v>0.1223777169711442</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.05730745734313816</v>
+        <v>0.06493103542298324</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.3958979742801711</v>
+        <v>0.3992849554432429</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3449316805304665</v>
+        <v>0.3566126860555618</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3249158983782847</v>
+        <v>0.3191162116855832</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7744543505151372</v>
+        <v>0.7875617219686932</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2343668648272905</v>
+        <v>0.2295322978872502</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1516794966754929</v>
+        <v>0.1593911957119557</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4594345136469144</v>
+        <v>0.4596790204347987</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2453007642277735</v>
+        <v>0.2537896746340492</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1872618102693984</v>
+        <v>0.1898127761425289</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.5440345005171866</v>
+        <v>0.5442402823602546</v>
       </c>
     </row>
     <row r="34">
